--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/phone_price_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0220F5A1-1054-6C40-849E-372BFF270B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47897CB6-3971-CB4D-A9E2-D046D9815325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
   <si>
     <t>الاسم (name)</t>
   </si>
@@ -85,18 +85,12 @@
     <t>4/128GB</t>
   </si>
   <si>
-    <t>Galaxy Z Fold 6</t>
-  </si>
-  <si>
     <t>12/512GB</t>
   </si>
   <si>
     <t>Galaxy S25 Ultra - Jet Black</t>
   </si>
   <si>
-    <t>Galaxy S25 Plus</t>
-  </si>
-  <si>
     <t>8/512GB</t>
   </si>
   <si>
@@ -211,18 +205,6 @@
     <t>Realme Note 60X</t>
   </si>
   <si>
-    <t>Honor Magic 7 Pro &amp; Watch + Pad X9</t>
-  </si>
-  <si>
-    <t>Honor 400 Pro &amp; watch</t>
-  </si>
-  <si>
-    <t>Honor 400 &amp; Buds</t>
-  </si>
-  <si>
-    <t>Honor 200 &amp; Buds</t>
-  </si>
-  <si>
     <t>Mi 15</t>
   </si>
   <si>
@@ -370,81 +352,12 @@
     <t>Huawei FreeBuds SE3</t>
   </si>
   <si>
-    <t>Infinix XPad 10.95inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>Infinix XPad 10.95inc SIM</t>
-  </si>
-  <si>
-    <t>Tecno MegaPad 10.1inc SIM</t>
-  </si>
-  <si>
-    <t>Tecno MegaPad 11.1inc SIM</t>
-  </si>
-  <si>
-    <t>Blackview MEGA 2 11.79inc SIM</t>
-  </si>
-  <si>
-    <t>BlackView Tab 60 Pro 10.1inc SIM</t>
-  </si>
-  <si>
-    <t>BlackView Tab A6 Kids 10.1inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>BlackView Tab 60 8.68 inc Wi-Fi</t>
-  </si>
-  <si>
     <t>8/128GE</t>
   </si>
   <si>
     <t xml:space="preserve">4/256GB </t>
   </si>
   <si>
-    <t>Huawei MatePad SE - Wi-Fi App Gallery</t>
-  </si>
-  <si>
-    <t>Huawei Matepad 11.5 - Wi-Fi App Gallery</t>
-  </si>
-  <si>
-    <t>Huawei MatePad Pro - Wi-Fi App Gallery</t>
-  </si>
-  <si>
-    <t>Xiaomi Pad 7 11.2inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>Xiaomi Pad 7 Pro 11.2inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>Redmi Pad SE 11.Oinc Wi-Fi</t>
-  </si>
-  <si>
-    <t>Redmi Pad Pro 12.1inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>Redmi Pad Pro 5G 12.1 inc SIM</t>
-  </si>
-  <si>
-    <t>honor MagicPad 2 12.3inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad V9 11.5inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad 9 12.1inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad X9a 11.5inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad X9 11.5inc Wi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad X8a 11.0incWi-Fi</t>
-  </si>
-  <si>
-    <t>honor Pad X8a Kids 11.0incWi-Fi</t>
-  </si>
-  <si>
     <t>iPhone 16 Pro Max</t>
   </si>
   <si>
@@ -454,9 +367,6 @@
     <t>2,230,000 IQD</t>
   </si>
   <si>
-    <t>iPhone 16 Pro Max نسخة الدبل سيم كارت</t>
-  </si>
-  <si>
     <t>512GB</t>
   </si>
   <si>
@@ -475,9 +385,6 @@
     <t>1,925,000 IQD</t>
   </si>
   <si>
-    <t>iPhone 16 Plus نسخة الشرق الاوسط</t>
-  </si>
-  <si>
     <t>1,335,000 QD</t>
   </si>
   <si>
@@ -487,82 +394,184 @@
     <t>1,185,000 QD</t>
   </si>
   <si>
-    <t>نسخة الشرق الاوسط iPhone 16</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>1,035,000 IQD</t>
   </si>
   <si>
-    <t>نسئة الشرق الاوسط iPhone 15</t>
-  </si>
-  <si>
-    <t>نسخة الشرق الاوسط iPhone 14</t>
-  </si>
-  <si>
-    <t>نسخة الشرق الاوسط iPhone 13</t>
-  </si>
-  <si>
     <t>590,000 IQD</t>
   </si>
   <si>
-    <t>iPad Pro 13-inch M4 WiFi</t>
-  </si>
-  <si>
-    <t>(256GB</t>
-  </si>
-  <si>
     <t>1,620,000 IQD</t>
   </si>
   <si>
-    <t>(512GB</t>
-  </si>
-  <si>
     <t>1,890,000 QD</t>
   </si>
   <si>
-    <t>2TB</t>
-  </si>
-  <si>
     <t>2,650,000 IQD</t>
   </si>
   <si>
-    <t>iPad Pro 11-inch M4 WiFi</t>
-  </si>
-  <si>
     <t>1,320,000 QD</t>
   </si>
   <si>
     <t>1,590,000 IQD</t>
   </si>
   <si>
-    <t>iPad Air 7 M3 Chip 13-inch</t>
-  </si>
-  <si>
     <t>1,090,000 IQD</t>
   </si>
   <si>
     <t>1,225,000 IQD</t>
   </si>
   <si>
-    <t>iPad Air 7 M3 Chip 11-inch</t>
-  </si>
-  <si>
     <t>930,000 IQD</t>
   </si>
   <si>
     <t>790,000 IQD</t>
   </si>
   <si>
-    <t>iPad 1l-inch A16 Chip</t>
-  </si>
-  <si>
     <t>500,000 IQD</t>
   </si>
   <si>
     <t>600,000 IQD</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold6</t>
+  </si>
+  <si>
+    <t>Galaxy S25+</t>
+  </si>
+  <si>
+    <t>Honor Magic7 Pro</t>
+  </si>
+  <si>
+    <t>Honor 400 Pro</t>
+  </si>
+  <si>
+    <t>Honor 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honor 200 </t>
+  </si>
+  <si>
+    <t>11-inch-M3-128GB</t>
+  </si>
+  <si>
+    <t>11-inch-M3-256GB</t>
+  </si>
+  <si>
+    <t>13-inch-M3-256GB</t>
+  </si>
+  <si>
+    <t>13-inch-M3-128GB</t>
+  </si>
+  <si>
+    <t>11-inch -M4 WiFi-512GB</t>
+  </si>
+  <si>
+    <t>11-inch -M4 WiFi-256GB</t>
+  </si>
+  <si>
+    <t>13-inch -M4 WiFi-2TB</t>
+  </si>
+  <si>
+    <t>13-inch -M4 WiFi-512GB</t>
+  </si>
+  <si>
+    <t>iPad 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iPhone 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iPhone 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iPhone 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iPhone 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Pro Max  الدبل سيم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor Pad X8a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor Pad X9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor Pad X9a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor Pad 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor Pad V9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor MagicPad 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi Pad Pro 5G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi Pad Pro </t>
+  </si>
+  <si>
+    <t>Redmi Pad SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Pad 7 Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Pad 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei MatePad Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Matepad 11.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei MatePad SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackView Tab 60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackView Tab A6 Kids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackView Tab 60 Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackview MEGA 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecno MegaPad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinix XPad </t>
+  </si>
+  <si>
+    <t>M4 WiFi-256GB</t>
+  </si>
+  <si>
+    <t>iPad Air 7 11"</t>
+  </si>
+  <si>
+    <t>iPad Air 7 13"</t>
+  </si>
+  <si>
+    <t>iPad Pro 11"</t>
+  </si>
+  <si>
+    <t>iPad Pro 13"</t>
   </si>
 </sst>
 </file>
@@ -946,15 +955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A32F0D-D5B4-E741-9E04-6E6BE25344F9}">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
@@ -967,12 +976,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3">
         <v>1779000</v>
@@ -983,13 +992,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3">
         <v>2625000</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1005,7 +1014,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>1350000</v>
@@ -1016,7 +1025,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3">
         <v>1150000</v>
@@ -1027,13 +1036,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3">
         <v>1250000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,7 +1075,7 @@
         <v>920000</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,7 +1108,7 @@
         <v>387000</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,7 +1130,7 @@
         <v>295000</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,7 +1163,7 @@
         <v>183000</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1176,7 +1185,7 @@
         <v>102000</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,89 +1207,89 @@
         <v>132000</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>80000</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>108000</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
         <v>159000</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4">
         <v>1330000</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B27" s="4">
         <v>812000</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B28" s="4">
         <v>490000</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B29" s="4">
         <v>475000</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <v>352000</v>
@@ -1291,7 +1300,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4">
         <v>328000</v>
@@ -1302,7 +1311,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4">
         <v>320000</v>
@@ -1313,7 +1322,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4">
         <v>260000</v>
@@ -1324,18 +1333,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4">
         <v>290000</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4">
         <v>180000</v>
@@ -1346,40 +1355,40 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4">
         <v>123000</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4">
         <v>137000</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4">
         <v>98000</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4">
         <v>108000</v>
@@ -1390,7 +1399,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4">
         <v>480000</v>
@@ -1401,7 +1410,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4">
         <v>348000</v>
@@ -1412,7 +1421,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4">
         <v>320000</v>
@@ -1423,7 +1432,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="4">
         <v>290000</v>
@@ -1434,7 +1443,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4">
         <v>255000</v>
@@ -1445,7 +1454,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4">
         <v>250000</v>
@@ -1456,7 +1465,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4">
         <v>189000</v>
@@ -1467,7 +1476,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4">
         <v>180000</v>
@@ -1478,7 +1487,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4">
         <v>138000</v>
@@ -1489,7 +1498,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="4">
         <v>144000</v>
@@ -1500,7 +1509,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4">
         <v>98000</v>
@@ -1511,7 +1520,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" s="4">
         <v>116000</v>
@@ -1522,40 +1531,40 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4">
         <v>1258000</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4">
         <v>825000</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4">
         <v>500000</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4">
         <v>462000</v>
@@ -1566,18 +1575,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4">
         <v>595000</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4">
         <v>237000</v>
@@ -1588,29 +1597,29 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4">
         <v>284000</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4">
         <v>168000</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4">
         <v>199000</v>
@@ -1621,18 +1630,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4">
         <v>157000</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4">
         <v>193000</v>
@@ -1643,18 +1652,18 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4">
         <v>105000</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4">
         <v>120000</v>
@@ -1665,7 +1674,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4">
         <v>980000</v>
@@ -1676,7 +1685,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4">
         <v>511000</v>
@@ -1687,40 +1696,40 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4">
         <v>563000</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B68" s="4">
         <v>738000</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B69" s="4">
         <v>800000</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B70" s="4">
         <v>222000</v>
@@ -1731,7 +1740,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B71" s="4">
         <v>275000</v>
@@ -1742,7 +1751,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B72" s="4">
         <v>307000</v>
@@ -1753,40 +1762,40 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B73" s="4">
         <v>370000</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B74" s="4">
         <v>418000</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4">
         <v>501000</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B76" s="4">
         <v>164000</v>
@@ -1797,7 +1806,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B77" s="4">
         <v>120000</v>
@@ -1808,7 +1817,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B78" s="4">
         <v>148000</v>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B79" s="4">
         <v>88000</v>
@@ -1830,7 +1839,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B80" s="4">
         <v>103000</v>
@@ -1841,51 +1850,51 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B81" s="4">
         <v>926000</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B82" s="4">
         <v>677000</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B83" s="4">
         <v>664000</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B84" s="4">
         <v>360000</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B85" s="4">
         <v>415000</v>
@@ -1896,29 +1905,29 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B86" s="4">
         <v>459000</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B87" s="4">
         <v>437000</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B88" s="4">
         <v>262000</v>
@@ -1929,18 +1938,18 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B89" s="4">
         <v>303000</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B90" s="4">
         <v>147000</v>
@@ -1951,7 +1960,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B91" s="4">
         <v>105000</v>
@@ -1962,7 +1971,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B92" s="4">
         <v>395000</v>
@@ -1973,18 +1982,18 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B93" s="4">
         <v>314000</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B94" s="4">
         <v>407000</v>
@@ -1995,18 +2004,18 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B95" s="4">
         <v>473000</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B96" s="4">
         <v>250000</v>
@@ -2017,7 +2026,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B97" s="4">
         <v>285000</v>
@@ -2028,7 +2037,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B98" s="4">
         <v>305000</v>
@@ -2039,7 +2048,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B99" s="4">
         <v>465000</v>
@@ -2050,18 +2059,18 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B100" s="4">
         <v>158000</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4">
         <v>137000</v>
@@ -2072,7 +2081,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B102" s="4">
         <v>199000</v>
@@ -2083,7 +2092,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4">
         <v>224000</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B104" s="4">
         <v>97000</v>
@@ -2105,7 +2114,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4">
         <v>116000</v>
@@ -2116,172 +2125,172 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4">
         <v>238000</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4">
         <v>373000</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B108" s="4">
         <v>493000</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B109" s="4">
         <v>433000</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B110" s="4">
         <v>178000</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B111" s="4">
         <v>283000</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B112" s="4">
         <v>140000</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B113" s="4">
         <v>160000</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B114" s="4">
         <v>190000</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B115" s="4">
         <v>223000</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B116" s="4">
         <v>185000</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B117" s="4">
         <v>126000</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B118" s="4">
         <v>133000</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B119" s="4">
         <v>88000</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B120" s="4">
         <v>49000</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B121" s="4">
         <v>193000</v>
@@ -2292,7 +2301,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B122" s="4">
         <v>233000</v>
@@ -2303,7 +2312,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B123" s="4">
         <v>165000</v>
@@ -2314,18 +2323,18 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B124" s="4">
         <v>195000</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B125" s="4">
         <v>235000</v>
@@ -2336,7 +2345,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B126" s="4">
         <v>198000</v>
@@ -2347,18 +2356,18 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B127" s="4">
         <v>160000</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B128" s="4">
         <v>115000</v>
@@ -2369,7 +2378,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B129" s="4">
         <v>110000</v>
@@ -2380,18 +2389,18 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B130" s="4">
         <v>283000</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B131" s="4">
         <v>435000</v>
@@ -2402,18 +2411,18 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B132" s="4">
         <v>1183000</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B133" s="4">
         <v>465000</v>
@@ -2424,7 +2433,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B134" s="4">
         <v>507000</v>
@@ -2435,18 +2444,18 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B135" s="4">
         <v>665000</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B136" s="4">
         <v>229000</v>
@@ -2457,7 +2466,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B137" s="4">
         <v>320000</v>
@@ -2468,7 +2477,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B138" s="4">
         <v>391000</v>
@@ -2479,7 +2488,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B139" s="4">
         <v>813000</v>
@@ -2490,7 +2499,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B140" s="4">
         <v>635000</v>
@@ -2501,7 +2510,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B141" s="4">
         <v>342000</v>
@@ -2512,7 +2521,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B142" s="4">
         <v>265000</v>
@@ -2523,7 +2532,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B143" s="4">
         <v>213000</v>
@@ -2534,7 +2543,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B144" s="4">
         <v>185000</v>
@@ -2545,7 +2554,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B145" s="4">
         <v>185000</v>
@@ -2556,255 +2565,255 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2813,5 +2822,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/prices.xlsx
+++ b/prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/phone_price_bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47897CB6-3971-CB4D-A9E2-D046D9815325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0EE6CF-6FE2-C145-9322-0F212FE5224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4325</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="180">
   <si>
     <t>الاسم (name)</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>iPad Pro 13"</t>
+  </si>
+  <si>
+    <t>Redmi Pad 2</t>
+  </si>
+  <si>
+    <t>Redmi Pad 2 4G</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A32F0D-D5B4-E741-9E04-6E6BE25344F9}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,10 +2472,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B137" s="4">
-        <v>320000</v>
+        <v>252000</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>11</v>
@@ -2477,10 +2483,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B138" s="4">
-        <v>391000</v>
+        <v>237000</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>11</v>
@@ -2488,32 +2494,32 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B139" s="4">
-        <v>813000</v>
+        <v>192000</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B140" s="4">
-        <v>635000</v>
+        <v>320000</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B141" s="4">
-        <v>342000</v>
+        <v>391000</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>11</v>
@@ -2521,43 +2527,43 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B142" s="4">
-        <v>265000</v>
+        <v>813000</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B143" s="4">
-        <v>213000</v>
+        <v>635000</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B144" s="4">
-        <v>185000</v>
+        <v>342000</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B145" s="4">
-        <v>185000</v>
+        <v>265000</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>14</v>
@@ -2565,35 +2571,35 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>108</v>
+        <v>154</v>
+      </c>
+      <c r="B146" s="4">
+        <v>213000</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>110</v>
+        <v>153</v>
+      </c>
+      <c r="B147" s="4">
+        <v>185000</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
+      </c>
+      <c r="B148" s="4">
+        <v>185000</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,18 +2607,18 @@
         <v>106</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>109</v>
@@ -2620,10 +2626,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>111</v>
@@ -2631,43 +2637,43 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B154" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>116</v>
@@ -2675,21 +2681,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>116</v>
@@ -2697,128 +2703,161 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B170" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DE2B6-7893-C441-B7D8-59297EC9BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C0E4D-04A5-F047-B7CE-F106B4627D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
   <si>
     <t>الاسم (name)</t>
   </si>
@@ -280,51 +280,21 @@
     <t>1TB</t>
   </si>
   <si>
-    <t>2,230,000 IQD</t>
-  </si>
-  <si>
     <t>512GB</t>
   </si>
   <si>
     <t>256GB</t>
   </si>
   <si>
-    <t>1,675,000 IQD</t>
-  </si>
-  <si>
     <t>السعر متغير</t>
   </si>
   <si>
-    <t>1,335,000 QD</t>
-  </si>
-  <si>
     <t>128GB</t>
   </si>
   <si>
-    <t>1,185,000 QD</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>1,035,000 IQD</t>
-  </si>
-  <si>
-    <t>590,000 IQD</t>
-  </si>
-  <si>
-    <t>1,890,000 QD</t>
-  </si>
-  <si>
-    <t>2,650,000 IQD</t>
-  </si>
-  <si>
-    <t>1,590,000 IQD</t>
-  </si>
-  <si>
-    <t>790,000 IQD</t>
-  </si>
-  <si>
     <t>Galaxy Z Fold6</t>
   </si>
   <si>
@@ -415,42 +385,9 @@
     <t>Redmi Pad 2 4G</t>
   </si>
   <si>
-    <t>2,220,000 IQD</t>
-  </si>
-  <si>
-    <t>1,960,000 IQD</t>
-  </si>
-  <si>
-    <t>1,630,000 IQD</t>
-  </si>
-  <si>
-    <t>1,300,000 IQD</t>
-  </si>
-  <si>
-    <t>1,060,000 IQD</t>
-  </si>
-  <si>
-    <t>1,095,000 QD</t>
-  </si>
-  <si>
-    <t>895,000 IQD</t>
-  </si>
-  <si>
-    <t>750,000 IQD</t>
-  </si>
-  <si>
-    <t>485,000 IQD</t>
-  </si>
-  <si>
-    <t>595,000 IQD</t>
-  </si>
-  <si>
     <t>iPad 10</t>
   </si>
   <si>
-    <t>520,000 IQD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> M4 WiFi - 256GB</t>
   </si>
   <si>
@@ -493,33 +430,15 @@
     <t>12GB - 256GB</t>
   </si>
   <si>
-    <t>1,125,000 IQD</t>
-  </si>
-  <si>
     <t>12GB - 512GB</t>
   </si>
   <si>
-    <t>1,250,000 IQD</t>
-  </si>
-  <si>
-    <t>1,150,000 |QD</t>
-  </si>
-  <si>
     <t>8GB - 512GB</t>
   </si>
   <si>
-    <t>925,000 IQD</t>
-  </si>
-  <si>
-    <t>1,725,000 IQD</t>
-  </si>
-  <si>
     <t>8GB - 256GB</t>
   </si>
   <si>
-    <t>750,000 QD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Galaxy S25 Ultra</t>
   </si>
   <si>
@@ -535,60 +454,18 @@
     <t xml:space="preserve"> Galaxy Z Fold 6</t>
   </si>
   <si>
-    <t>548,000 IQD</t>
-  </si>
-  <si>
-    <t>502,000 IQD</t>
-  </si>
-  <si>
-    <t>423,000 IQD</t>
-  </si>
-  <si>
     <t>8GB - 128GB</t>
   </si>
   <si>
-    <t>387,000 QD</t>
-  </si>
-  <si>
-    <t>505,000 IQD</t>
-  </si>
-  <si>
-    <t>422,000 IQD</t>
-  </si>
-  <si>
-    <t>349,000 IQD</t>
-  </si>
-  <si>
-    <t>295,000 IQD</t>
-  </si>
-  <si>
-    <t>223,000 IQD</t>
-  </si>
-  <si>
     <t>6GB - 128GB</t>
   </si>
   <si>
-    <t>183,000 IQD</t>
-  </si>
-  <si>
     <t>4GB - 128GB</t>
   </si>
   <si>
-    <t>161,000 IQD</t>
-  </si>
-  <si>
-    <t>132,000 IQD</t>
-  </si>
-  <si>
-    <t>115,000 IQD</t>
-  </si>
-  <si>
     <t>4GB - 64GB</t>
   </si>
   <si>
-    <t>98,000 IQD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Galaxy A56 5G</t>
   </si>
   <si>
@@ -613,240 +490,99 @@
     <t>HONOR Magic V3 5G</t>
   </si>
   <si>
-    <t>2,070,000 IQD</t>
-  </si>
-  <si>
     <t>16GB - 512GB</t>
   </si>
   <si>
-    <t>320,000 IQD</t>
-  </si>
-  <si>
-    <t>180,000 QD</t>
-  </si>
-  <si>
-    <t>128,000 IQD</t>
-  </si>
-  <si>
-    <t>140,000 IQD</t>
-  </si>
-  <si>
-    <t>335,000 IQD</t>
-  </si>
-  <si>
     <t>honor Pad 10</t>
   </si>
   <si>
-    <t>398,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi 15 Ultra</t>
   </si>
   <si>
     <t>16GB - 1TB</t>
   </si>
   <si>
-    <t>1,570,000 IQD</t>
-  </si>
-  <si>
-    <t>1,456,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi 15</t>
   </si>
   <si>
     <t>12GB - 512B</t>
   </si>
   <si>
-    <t>980,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi 14T Pro</t>
   </si>
   <si>
     <t>8GB - 1TB</t>
   </si>
   <si>
-    <t>810,000 QD</t>
-  </si>
-  <si>
-    <t>745,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi 14T</t>
   </si>
   <si>
-    <t>511,000 IQD</t>
-  </si>
-  <si>
-    <t>563,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Note 14 Pro Plus 5G</t>
   </si>
   <si>
-    <t>501,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Note 14 Pro 5G</t>
   </si>
   <si>
-    <t>418,000 IQD</t>
-  </si>
-  <si>
-    <t>356,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Note 14 Pro 4G</t>
   </si>
   <si>
-    <t>370,000 IQD</t>
-  </si>
-  <si>
-    <t>307,000 IQD</t>
-  </si>
-  <si>
-    <t>268,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Note 14</t>
   </si>
   <si>
-    <t>222,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi 14c</t>
   </si>
   <si>
-    <t>148,000 IQD</t>
-  </si>
-  <si>
-    <t>120,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi 13</t>
   </si>
   <si>
-    <t>175,000 IQD</t>
-  </si>
-  <si>
-    <t>103,000 IQD</t>
-  </si>
-  <si>
     <t>3GB - 64GB</t>
   </si>
   <si>
-    <t>86,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi Pad 6s Pro</t>
   </si>
   <si>
-    <t>710,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi Pad 7 Pro</t>
   </si>
   <si>
-    <t>664,000 IQD</t>
-  </si>
-  <si>
     <t>Xiaomi Pad 7</t>
   </si>
   <si>
-    <t>507,000 IQD</t>
-  </si>
-  <si>
-    <t>461,000 QD</t>
-  </si>
-  <si>
     <t>Redmi Pad Pro 5G</t>
   </si>
   <si>
-    <t>391,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Pad Pro</t>
   </si>
   <si>
-    <t>321,000 IQD</t>
-  </si>
-  <si>
-    <t>252,000 IQD</t>
-  </si>
-  <si>
-    <t>237,000 QD</t>
-  </si>
-  <si>
-    <t>192,000 IQD</t>
-  </si>
-  <si>
     <t>Redmi Pad Se</t>
   </si>
   <si>
-    <t>220,000 IQD</t>
-  </si>
-  <si>
     <t>POCO F7 Ultra</t>
   </si>
   <si>
-    <t>927,000 IQD</t>
-  </si>
-  <si>
     <t>POCO F7 Pro</t>
   </si>
   <si>
-    <t>687,000 IQD</t>
-  </si>
-  <si>
     <t>POCO X7 Pro 5G</t>
   </si>
   <si>
-    <t>459,000 IQD</t>
-  </si>
-  <si>
-    <t>415,000 QD</t>
-  </si>
-  <si>
     <t>POCO X7 5G</t>
   </si>
   <si>
-    <t>360,000 QD</t>
-  </si>
-  <si>
-    <t>304,000 IQD</t>
-  </si>
-  <si>
     <t>POCO F6 Pro 5G</t>
   </si>
   <si>
-    <t>665,000 IQD</t>
-  </si>
-  <si>
     <t>POCO F6 5G</t>
   </si>
   <si>
-    <t>510,000 QD</t>
-  </si>
-  <si>
     <t>POCO M6</t>
   </si>
   <si>
-    <t>200,000 IQD</t>
-  </si>
-  <si>
     <t>POCO C75</t>
   </si>
   <si>
-    <t>147,000 IQD</t>
-  </si>
-  <si>
     <t>POCO C71</t>
   </si>
   <si>
-    <t>105,000 QD</t>
-  </si>
-  <si>
     <t>POCO C61</t>
   </si>
   <si>
@@ -856,40 +592,22 @@
     <t>HUAWEI WATCH 5 46mm Titanium Silver</t>
   </si>
   <si>
-    <t>840,000 IQD</t>
-  </si>
-  <si>
     <t>HUAWEI WATCH 5 46mm Titanium Purple</t>
   </si>
   <si>
-    <t>625,000 QD</t>
-  </si>
-  <si>
     <t>HUAWEI WATCH 5 42mm Titanium Silver</t>
   </si>
   <si>
-    <t>550,000 IQD</t>
-  </si>
-  <si>
     <t>HUAWEI WATCH 5 42mm Stainless Gold</t>
   </si>
   <si>
-    <t>800,000 IQD</t>
-  </si>
-  <si>
     <t>HUAWEI WATCH Ultimate</t>
   </si>
   <si>
     <t>POCO F7</t>
   </si>
   <si>
-    <t>559,000 IQD</t>
-  </si>
-  <si>
     <t>POCO F8</t>
-  </si>
-  <si>
-    <t>495,000 IQD</t>
   </si>
 </sst>
 </file>
@@ -1283,14 +1001,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A32F0D-D5B4-E741-9E04-6E6BE25344F9}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -1302,7 +1020,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1311,7 +1029,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5">
         <v>1775000</v>
@@ -1322,7 +1040,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5">
         <v>2625000</v>
@@ -1333,246 +1051,246 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1300000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1125000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>153</v>
+      <c r="B6" s="5">
+        <v>1250000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1150000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1250000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="B9" s="5">
+        <v>925000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1725000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="5">
+        <v>750000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="B12" s="5">
+        <v>548000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="B13" s="5">
+        <v>502000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="B14" s="5">
+        <v>423000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="5">
+        <v>387000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
+      </c>
+      <c r="B16" s="5">
+        <v>505000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
+      </c>
+      <c r="B17" s="5">
+        <v>422000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
+      </c>
+      <c r="B18" s="5">
+        <v>349000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
+      </c>
+      <c r="B19" s="5">
+        <v>295000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
+      </c>
+      <c r="B20" s="5">
+        <v>223000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
+      </c>
+      <c r="B21" s="5">
+        <v>183000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>147</v>
+      </c>
+      <c r="B22" s="5">
+        <v>161000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
+      </c>
+      <c r="B23" s="5">
+        <v>132000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="B24" s="5">
+        <v>115000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1581,13 +1299,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
+      </c>
+      <c r="B25" s="5">
+        <v>98000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1598,7 +1316,7 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>80000</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1610,7 +1328,7 @@
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>108000</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1622,7 +1340,7 @@
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>159000</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1631,20 +1349,20 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2070000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="4">
+        <v>86</v>
+      </c>
+      <c r="B30" s="5">
         <v>1330000</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1654,9 +1372,9 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="4">
+        <v>87</v>
+      </c>
+      <c r="B31" s="5">
         <v>812000</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1668,9 +1386,9 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="4">
+        <v>88</v>
+      </c>
+      <c r="B32" s="5">
         <v>490000</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1682,9 +1400,9 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="4">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5">
         <v>475000</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1698,7 +1416,7 @@
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>352000</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1712,7 +1430,7 @@
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>328000</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1726,7 +1444,7 @@
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>320000</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1740,7 +1458,7 @@
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>260000</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1753,7 +1471,7 @@
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>290000</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1766,8 +1484,8 @@
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>194</v>
+      <c r="B39" s="5">
+        <v>180000</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -1779,8 +1497,8 @@
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>195</v>
+      <c r="B40" s="5">
+        <v>128000</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>12</v>
@@ -1790,8 +1508,8 @@
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>196</v>
+      <c r="B41" s="5">
+        <v>140000</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>18</v>
@@ -1801,7 +1519,7 @@
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>98000</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1812,7 +1530,7 @@
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>108000</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1823,7 +1541,7 @@
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>485000</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1834,7 +1552,7 @@
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>348000</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1845,7 +1563,7 @@
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>320000</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1856,7 +1574,7 @@
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>290000</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1867,7 +1585,7 @@
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>255000</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1878,7 +1596,7 @@
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>250000</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -1889,7 +1607,7 @@
       <c r="A50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>189000</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1900,7 +1618,7 @@
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>180000</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -1911,7 +1629,7 @@
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>138000</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1922,7 +1640,7 @@
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>144000</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1933,7 +1651,7 @@
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>98000</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1944,7 +1662,7 @@
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>116000</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1955,7 +1673,7 @@
       <c r="A56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>1180000</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -1969,7 +1687,7 @@
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>825000</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -1983,7 +1701,7 @@
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>500000</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -1997,7 +1715,7 @@
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>462000</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2011,7 +1729,7 @@
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>600000</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2025,7 +1743,7 @@
       <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>240000</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2039,7 +1757,7 @@
       <c r="A62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>286000</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2053,7 +1771,7 @@
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>170000</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2067,7 +1785,7 @@
       <c r="A64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>199000</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -2078,7 +1796,7 @@
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>157000</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2089,7 +1807,7 @@
       <c r="A66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>193000</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2100,7 +1818,7 @@
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>105000</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2111,7 +1829,7 @@
       <c r="A68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>120000</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2120,145 +1838,145 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>152</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1570000</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>152</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1456000</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>154</v>
+      </c>
+      <c r="B71" s="5">
+        <v>980000</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>156</v>
+      </c>
+      <c r="B72" s="5">
+        <v>810000</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>156</v>
+      </c>
+      <c r="B73" s="5">
+        <v>745000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="B74" s="5">
+        <v>511000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>158</v>
+      </c>
+      <c r="B75" s="5">
+        <v>563000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>215</v>
+        <v>159</v>
+      </c>
+      <c r="B76" s="5">
+        <v>501000</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
+      </c>
+      <c r="B77" s="5">
+        <v>418000</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>160</v>
+      </c>
+      <c r="B78" s="5">
+        <v>356000</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>220</v>
+        <v>161</v>
+      </c>
+      <c r="B79" s="5">
+        <v>370000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>221</v>
+        <v>161</v>
+      </c>
+      <c r="B80" s="5">
+        <v>307000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -2266,59 +1984,59 @@
       <c r="A81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>222</v>
+      <c r="B81" s="5">
+        <v>268000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>224</v>
+        <v>162</v>
+      </c>
+      <c r="B82" s="5">
+        <v>222000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>226</v>
+        <v>163</v>
+      </c>
+      <c r="B83" s="5">
+        <v>148000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>227</v>
+        <v>163</v>
+      </c>
+      <c r="B84" s="5">
+        <v>120000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>229</v>
+        <v>164</v>
+      </c>
+      <c r="B85" s="5">
+        <v>175000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -2326,11 +2044,11 @@
       <c r="A86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>230</v>
+      <c r="B86" s="5">
+        <v>103000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -2338,182 +2056,182 @@
       <c r="A87" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>232</v>
+      <c r="B87" s="5">
+        <v>86000</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>250</v>
+        <v>172</v>
+      </c>
+      <c r="B88" s="5">
+        <v>927000</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>252</v>
+        <v>173</v>
+      </c>
+      <c r="B89" s="5">
+        <v>687000</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>281</v>
+        <v>188</v>
+      </c>
+      <c r="B90" s="5">
+        <v>559000</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>283</v>
+        <v>189</v>
+      </c>
+      <c r="B91" s="5">
+        <v>495000</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>254</v>
+        <v>174</v>
+      </c>
+      <c r="B92" s="5">
+        <v>459000</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>255</v>
+        <v>174</v>
+      </c>
+      <c r="B93" s="5">
+        <v>415000</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>257</v>
+        <v>175</v>
+      </c>
+      <c r="B94" s="5">
+        <v>360000</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>258</v>
+        <v>175</v>
+      </c>
+      <c r="B95" s="5">
+        <v>304000</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>260</v>
+        <v>176</v>
+      </c>
+      <c r="B96" s="5">
+        <v>665000</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>262</v>
+        <v>177</v>
+      </c>
+      <c r="B97" s="5">
+        <v>510000</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>264</v>
+        <v>178</v>
+      </c>
+      <c r="B98" s="5">
+        <v>200000</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>266</v>
+        <v>179</v>
+      </c>
+      <c r="B99" s="5">
+        <v>147000</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>268</v>
+        <v>180</v>
+      </c>
+      <c r="B100" s="5">
+        <v>105000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>268</v>
+        <v>181</v>
+      </c>
+      <c r="B101" s="5">
+        <v>105000</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="B102" s="5">
+        <v>320000</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -2523,7 +2241,7 @@
       <c r="A103" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="5">
         <v>395000</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -2534,7 +2252,7 @@
       <c r="A104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="5">
         <v>314000</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -2545,7 +2263,7 @@
       <c r="A105" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="5">
         <v>407000</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -2556,7 +2274,7 @@
       <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="5">
         <v>473000</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -2567,7 +2285,7 @@
       <c r="A107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="5">
         <v>250000</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -2578,7 +2296,7 @@
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="5">
         <v>285000</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -2589,7 +2307,7 @@
       <c r="A109" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="5">
         <v>305000</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -2600,7 +2318,7 @@
       <c r="A110" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="5">
         <v>465000</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -2611,7 +2329,7 @@
       <c r="A111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="5">
         <v>158000</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -2622,7 +2340,7 @@
       <c r="A112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="5">
         <v>137000</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -2633,7 +2351,7 @@
       <c r="A113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="5">
         <v>199000</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -2644,7 +2362,7 @@
       <c r="A114" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="5">
         <v>224000</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -2655,7 +2373,7 @@
       <c r="A115" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="5">
         <v>97000</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -2666,7 +2384,7 @@
       <c r="A116" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="5">
         <v>116000</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -2675,10 +2393,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>272</v>
+        <v>183</v>
+      </c>
+      <c r="B117" s="5">
+        <v>840000</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>60</v>
@@ -2686,10 +2404,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>274</v>
+        <v>184</v>
+      </c>
+      <c r="B118" s="5">
+        <v>625000</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>60</v>
@@ -2697,10 +2415,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>276</v>
+        <v>185</v>
+      </c>
+      <c r="B119" s="5">
+        <v>550000</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>60</v>
@@ -2708,10 +2426,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>278</v>
+        <v>186</v>
+      </c>
+      <c r="B120" s="5">
+        <v>800000</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>60</v>
@@ -2719,10 +2437,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
+      </c>
+      <c r="B121" s="5">
+        <v>745000</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>60</v>
@@ -2732,7 +2450,7 @@
       <c r="A122" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="5">
         <v>238000</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -2743,7 +2461,7 @@
       <c r="A123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="5">
         <v>373000</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -2754,7 +2472,7 @@
       <c r="A124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="5">
         <v>493000</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -2765,7 +2483,7 @@
       <c r="A125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="5">
         <v>433000</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -2776,7 +2494,7 @@
       <c r="A126" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="5">
         <v>178000</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -2787,7 +2505,7 @@
       <c r="A127" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="5">
         <v>283000</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -2798,7 +2516,7 @@
       <c r="A128" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="5">
         <v>140000</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -2809,7 +2527,7 @@
       <c r="A129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="5">
         <v>160000</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -2820,7 +2538,7 @@
       <c r="A130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="5">
         <v>190000</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -2831,7 +2549,7 @@
       <c r="A131" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="5">
         <v>223000</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -2842,7 +2560,7 @@
       <c r="A132" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="5">
         <v>185000</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -2853,7 +2571,7 @@
       <c r="A133" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="5">
         <v>126000</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -2864,7 +2582,7 @@
       <c r="A134" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="5">
         <v>133000</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -2875,7 +2593,7 @@
       <c r="A135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="5">
         <v>88000</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -2886,7 +2604,7 @@
       <c r="A136" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="5">
         <v>49000</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -2895,9 +2613,9 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B137" s="4">
+        <v>110</v>
+      </c>
+      <c r="B137" s="5">
         <v>193000</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -2906,9 +2624,9 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="4">
+        <v>110</v>
+      </c>
+      <c r="B138" s="5">
         <v>233000</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -2917,9 +2635,9 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B139" s="4">
+        <v>109</v>
+      </c>
+      <c r="B139" s="5">
         <v>165000</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -2928,9 +2646,9 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B140" s="4">
+        <v>109</v>
+      </c>
+      <c r="B140" s="5">
         <v>195000</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -2939,9 +2657,9 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B141" s="4">
+        <v>109</v>
+      </c>
+      <c r="B141" s="5">
         <v>235000</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -2950,9 +2668,9 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B142" s="4">
+        <v>108</v>
+      </c>
+      <c r="B142" s="5">
         <v>198000</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -2961,9 +2679,9 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B143" s="4">
+        <v>107</v>
+      </c>
+      <c r="B143" s="5">
         <v>160000</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -2972,9 +2690,9 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B144" s="4">
+        <v>106</v>
+      </c>
+      <c r="B144" s="5">
         <v>115000</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -2983,9 +2701,9 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B145" s="4">
+        <v>105</v>
+      </c>
+      <c r="B145" s="5">
         <v>110000</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -2994,9 +2712,9 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B146" s="4">
+        <v>104</v>
+      </c>
+      <c r="B146" s="5">
         <v>283000</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -3005,9 +2723,9 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="4">
+        <v>103</v>
+      </c>
+      <c r="B147" s="5">
         <v>435000</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -3016,9 +2734,9 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="4">
+        <v>102</v>
+      </c>
+      <c r="B148" s="5">
         <v>1183000</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -3027,112 +2745,112 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>234</v>
+        <v>166</v>
+      </c>
+      <c r="B149" s="5">
+        <v>710000</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>236</v>
+        <v>167</v>
+      </c>
+      <c r="B150" s="5">
+        <v>664000</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>238</v>
+        <v>168</v>
+      </c>
+      <c r="B151" s="5">
+        <v>507000</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>239</v>
+        <v>168</v>
+      </c>
+      <c r="B152" s="5">
+        <v>461000</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>241</v>
+        <v>169</v>
+      </c>
+      <c r="B153" s="5">
+        <v>391000</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>243</v>
+        <v>170</v>
+      </c>
+      <c r="B154" s="5">
+        <v>321000</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>244</v>
+        <v>114</v>
+      </c>
+      <c r="B155" s="5">
+        <v>252000</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>245</v>
+        <v>113</v>
+      </c>
+      <c r="B156" s="5">
+        <v>237000</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>246</v>
+        <v>113</v>
+      </c>
+      <c r="B157" s="5">
+        <v>192000</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>248</v>
+        <v>171</v>
+      </c>
+      <c r="B158" s="5">
+        <v>220000</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -3140,10 +2858,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="B159" s="5">
+        <v>790000</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>3</v>
@@ -3151,9 +2869,9 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="4">
+        <v>100</v>
+      </c>
+      <c r="B160" s="5">
         <v>635000</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -3162,21 +2880,21 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>199</v>
+        <v>151</v>
+      </c>
+      <c r="B161" s="5">
+        <v>398000</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>197</v>
+        <v>99</v>
+      </c>
+      <c r="B162" s="5">
+        <v>335000</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3184,9 +2902,9 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B163" s="4">
+        <v>98</v>
+      </c>
+      <c r="B163" s="5">
         <v>260000</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -3195,9 +2913,9 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B164" s="4">
+        <v>97</v>
+      </c>
+      <c r="B164" s="5">
         <v>210000</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -3206,9 +2924,9 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B165" s="4">
+        <v>96</v>
+      </c>
+      <c r="B165" s="5">
         <v>185000</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -3217,9 +2935,9 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B166" s="4">
+        <v>96</v>
+      </c>
+      <c r="B166" s="5">
         <v>185000</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -3230,8 +2948,8 @@
       <c r="A167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>80</v>
+      <c r="B167" s="5">
+        <v>2230000</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>79</v>
@@ -3239,255 +2957,255 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="B168" s="5">
+        <v>2220000</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>83</v>
+      <c r="B169" s="5">
+        <v>1675000</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>84</v>
+      <c r="B170" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>126</v>
+      <c r="B171" s="5">
+        <v>1960000</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1335000</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1185000</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1035000</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B178" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="B178" s="5">
+        <v>590000</v>
+      </c>
       <c r="C178" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="B179" s="5">
+        <v>1630000</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1890000</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="B181" s="5">
+        <v>2650000</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1300000</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1590000</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1060000</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1095000</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B186" s="5">
+        <v>895000</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B187" s="5">
+        <v>750000</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="B188" s="5">
+        <v>485000</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="B189" s="5">
+        <v>595000</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
+      </c>
+      <c r="B190" s="5">
+        <v>520000</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C0E4D-04A5-F047-B7CE-F106B4627D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB094F6-D538-B443-882D-00355BFC655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E46CB62F-FE53-A44C-937C-084064EC55F5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4350</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="195">
   <si>
     <t>الاسم (name)</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Redmi A5</t>
   </si>
   <si>
-    <t>Infinix GT 30 Pro</t>
-  </si>
-  <si>
     <t>Infinix Zero 40 - 4G</t>
   </si>
   <si>
@@ -286,18 +283,12 @@
     <t>256GB</t>
   </si>
   <si>
-    <t>السعر متغير</t>
-  </si>
-  <si>
     <t>128GB</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Galaxy Z Fold6</t>
-  </si>
-  <si>
     <t>Honor Magic7 Pro</t>
   </si>
   <si>
@@ -608,6 +599,30 @@
   </si>
   <si>
     <t>POCO F8</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Pro  الدبل سيم </t>
+  </si>
+  <si>
+    <t>Infinix GT 30 Pro 5G</t>
+  </si>
+  <si>
+    <t>Tecno Megic Pad 10</t>
+  </si>
+  <si>
+    <t>Realme C75x</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 7</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold 7</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold 6</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,6 +700,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A32F0D-D5B4-E741-9E04-6E6BE25344F9}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1045,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5">
         <v>1775000</v>
@@ -1040,7 +1056,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B3" s="5">
         <v>2625000</v>
@@ -1051,359 +1067,353 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5">
-        <v>1300000</v>
+        <v>2499000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="B5" s="5">
-        <v>1125000</v>
+        <v>1479000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5">
-        <v>1250000</v>
+        <v>1300000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5">
-        <v>1150000</v>
+        <v>1125000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
         <v>1250000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B9" s="5">
-        <v>925000</v>
+        <v>1150000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5">
-        <v>1725000</v>
+        <v>1250000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="5">
-        <v>750000</v>
+        <v>925000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5">
-        <v>548000</v>
+        <v>1725000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B13" s="5">
-        <v>502000</v>
+        <v>750000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5">
-        <v>423000</v>
+        <v>548000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B15" s="5">
-        <v>387000</v>
+        <v>502000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5">
-        <v>505000</v>
+        <v>423000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5">
-        <v>422000</v>
+        <v>387000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B18" s="5">
-        <v>349000</v>
+        <v>505000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5">
-        <v>295000</v>
+        <v>422000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B20" s="5">
-        <v>223000</v>
+        <v>349000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B21" s="5">
-        <v>183000</v>
+        <v>295000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5">
-        <v>161000</v>
+        <v>223000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B23" s="5">
-        <v>132000</v>
+        <v>183000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5">
-        <v>115000</v>
+        <v>161000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5">
-        <v>98000</v>
+        <v>132000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B26" s="5">
-        <v>80000</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>115000</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B27" s="5">
-        <v>108000</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>98000</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="5">
-        <v>159000</v>
+        <v>80000</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5">
-        <v>2070000</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>108000</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5">
-        <v>1330000</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>159000</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B31" s="5">
-        <v>812000</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>2070000</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B32" s="5">
-        <v>490000</v>
+        <v>1330000</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B33" s="5">
-        <v>475000</v>
+        <v>812000</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -1414,13 +1424,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B34" s="5">
-        <v>352000</v>
+        <v>490000</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1428,13 +1438,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B35" s="5">
-        <v>328000</v>
+        <v>475000</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1442,10 +1452,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5">
-        <v>320000</v>
+        <v>352000</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
@@ -1456,36 +1466,38 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5">
-        <v>260000</v>
+        <v>328000</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="5">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="5">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -1495,98 +1507,102 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="5">
-        <v>128000</v>
+        <v>290000</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="5">
-        <v>98000</v>
+        <v>128000</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="5">
-        <v>108000</v>
+        <v>140000</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="5">
-        <v>485000</v>
+        <v>98000</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5">
-        <v>348000</v>
+        <v>108000</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5">
-        <v>320000</v>
+        <v>485000</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="5">
-        <v>290000</v>
+        <v>348000</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="5">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -1594,21 +1610,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" s="5">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="5">
-        <v>189000</v>
+        <v>255000</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -1616,32 +1632,32 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="5">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" s="5">
-        <v>138000</v>
+        <v>189000</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5">
-        <v>144000</v>
+        <v>180000</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -1649,77 +1665,68 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="5">
-        <v>98000</v>
+        <v>138000</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="5">
-        <v>116000</v>
+        <v>144000</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B56" s="5">
-        <v>1180000</v>
+        <v>98000</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B57" s="5">
-        <v>825000</v>
+        <v>116000</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B58" s="5">
-        <v>500000</v>
+        <v>136000</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B59" s="5">
-        <v>462000</v>
+        <v>1180000</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1727,10 +1734,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B60" s="5">
-        <v>600000</v>
+        <v>825000</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>8</v>
@@ -1741,13 +1748,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" s="5">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1755,13 +1762,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62" s="5">
-        <v>286000</v>
+        <v>462000</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1769,13 +1776,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" s="5">
-        <v>170000</v>
+        <v>600000</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1783,818 +1790,857 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="5">
-        <v>199000</v>
+        <v>240000</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" s="5">
-        <v>157000</v>
+        <v>286000</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B66" s="5">
-        <v>193000</v>
+        <v>208000</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67" s="5">
-        <v>105000</v>
+        <v>170000</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="5">
-        <v>120000</v>
+        <v>199000</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="B69" s="5">
-        <v>1570000</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>157000</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="B70" s="5">
-        <v>1456000</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>193000</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="B71" s="5">
-        <v>980000</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>105000</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="B72" s="5">
-        <v>810000</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>120000</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B73" s="5">
-        <v>745000</v>
+        <v>1570000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B74" s="5">
-        <v>511000</v>
+        <v>1456000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B75" s="5">
-        <v>563000</v>
+        <v>980000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B76" s="5">
-        <v>501000</v>
+        <v>810000</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B77" s="5">
-        <v>418000</v>
+        <v>745000</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B78" s="5">
-        <v>356000</v>
+        <v>511000</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B79" s="5">
-        <v>370000</v>
+        <v>563000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B80" s="5">
-        <v>307000</v>
+        <v>501000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="B81" s="5">
-        <v>268000</v>
+        <v>418000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B82" s="5">
-        <v>222000</v>
+        <v>356000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B83" s="5">
-        <v>148000</v>
+        <v>370000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B84" s="5">
-        <v>120000</v>
+        <v>307000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="B85" s="5">
-        <v>175000</v>
+        <v>268000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B86" s="5">
-        <v>103000</v>
+        <v>222000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B87" s="5">
-        <v>86000</v>
+        <v>148000</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B88" s="5">
-        <v>927000</v>
+        <v>120000</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B89" s="5">
-        <v>687000</v>
+        <v>175000</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="B90" s="5">
-        <v>559000</v>
+        <v>103000</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B91" s="5">
-        <v>495000</v>
+        <v>86000</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B92" s="5">
-        <v>459000</v>
+        <v>927000</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B93" s="5">
-        <v>415000</v>
+        <v>687000</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5">
-        <v>360000</v>
+        <v>559000</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B95" s="5">
-        <v>304000</v>
+        <v>495000</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B96" s="5">
-        <v>665000</v>
+        <v>459000</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B97" s="5">
-        <v>510000</v>
+        <v>415000</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B98" s="5">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B99" s="5">
-        <v>147000</v>
+        <v>304000</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B100" s="5">
-        <v>105000</v>
+        <v>665000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B101" s="5">
-        <v>105000</v>
+        <v>510000</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B102" s="5">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="B103" s="5">
-        <v>395000</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>147000</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="B104" s="5">
-        <v>314000</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>9</v>
+        <v>105000</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B105" s="5">
-        <v>407000</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>105000</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B106" s="5">
-        <v>473000</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>320000</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="B107" s="5">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B108" s="5">
-        <v>285000</v>
+        <v>314000</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B109" s="5">
-        <v>305000</v>
+        <v>407000</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B110" s="5">
-        <v>465000</v>
+        <v>473000</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B111" s="5">
-        <v>158000</v>
+        <v>250000</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="5">
+        <v>285000</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="5">
+        <v>305000</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="5">
+        <v>460000</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="5">
+        <v>158000</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="5">
+        <v>137000</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="5">
-        <v>137000</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="B117" s="5">
+        <v>199000</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B113" s="5">
-        <v>199000</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B118" s="5">
+        <v>210000</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="5">
-        <v>224000</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="B119" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" s="5">
+        <v>116000</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="5">
+        <v>840000</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="5">
-        <v>97000</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B122" s="5">
+        <v>625000</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="5">
-        <v>116000</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="5">
+        <v>550000</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B117" s="5">
-        <v>840000</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="B124" s="5">
+        <v>800000</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="5">
+        <v>745000</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B118" s="5">
-        <v>625000</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B119" s="5">
-        <v>550000</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B120" s="5">
-        <v>800000</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" s="5">
-        <v>745000</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="B126" s="5">
+        <v>238000</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B122" s="5">
-        <v>238000</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="B127" s="5">
+        <v>373000</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B123" s="5">
-        <v>373000</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B124" s="5">
+      <c r="B128" s="5">
         <v>493000</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B125" s="5">
-        <v>433000</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="5">
-        <v>178000</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B127" s="5">
-        <v>283000</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B128" s="5">
-        <v>140000</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B129" s="5">
-        <v>160000</v>
+        <v>433000</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B130" s="5">
-        <v>190000</v>
+        <v>178000</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B131" s="5">
-        <v>223000</v>
+        <v>283000</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B132" s="5">
-        <v>185000</v>
+        <v>140000</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B133" s="5">
-        <v>126000</v>
+        <v>160000</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B134" s="5">
-        <v>133000</v>
+        <v>190000</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B135" s="5">
-        <v>88000</v>
+        <v>223000</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>14</v>
@@ -2602,10 +2648,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B136" s="5">
-        <v>49000</v>
+        <v>185000</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>14</v>
@@ -2613,65 +2659,65 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B137" s="5">
-        <v>193000</v>
+        <v>126000</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B138" s="5">
-        <v>233000</v>
+        <v>133000</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B139" s="5">
-        <v>165000</v>
+        <v>88000</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B140" s="5">
-        <v>195000</v>
+        <v>49000</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141" s="5">
-        <v>235000</v>
+        <v>193000</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B142" s="5">
-        <v>198000</v>
+        <v>233000</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -2679,13 +2725,13 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B143" s="5">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2693,522 +2739,662 @@
         <v>106</v>
       </c>
       <c r="B144" s="5">
+        <v>195000</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" s="5">
+        <v>235000</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="5">
+        <v>198000</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147" s="5">
+        <v>160000</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B148" s="5">
         <v>115000</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B145" s="5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="5">
         <v>110000</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B146" s="5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" s="5">
         <v>283000</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B147" s="5">
+      <c r="C150" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" s="5">
         <v>435000</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="5">
         <v>1183000</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="5">
+        <v>710000</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="5">
+        <v>664000</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="5">
+        <v>507000</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="5">
+        <v>461000</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B149" s="5">
-        <v>710000</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="B157" s="5">
+        <v>391000</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B150" s="5">
-        <v>664000</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+      <c r="B158" s="5">
+        <v>321000</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" s="5">
+        <v>252000</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="5">
+        <v>237000</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" s="5">
+        <v>192000</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="5">
-        <v>507000</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="B162" s="5">
+        <v>220000</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B152" s="5">
-        <v>461000</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B153" s="5">
-        <v>391000</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B154" s="5">
-        <v>321000</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B155" s="5">
-        <v>252000</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B156" s="5">
-        <v>237000</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B157" s="5">
-        <v>192000</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B158" s="5">
-        <v>220000</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B159" s="5">
-        <v>790000</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B160" s="5">
-        <v>635000</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B161" s="5">
-        <v>398000</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B162" s="5">
-        <v>335000</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B163" s="5">
-        <v>260000</v>
+        <v>790000</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B164" s="5">
-        <v>210000</v>
+        <v>635000</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B165" s="5">
-        <v>185000</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>398000</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B166" s="5">
+        <v>335000</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B167" s="5">
+        <v>260000</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B168" s="5">
+        <v>210000</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B169" s="5">
         <v>185000</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" s="5">
+        <v>185000</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B171" s="5">
+        <v>2290000</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B167" s="5">
-        <v>2230000</v>
-      </c>
-      <c r="C167" s="4" t="s">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1960000</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B168" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="C168" s="4" t="s">
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1670000</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B169" s="5">
-        <v>1675000</v>
-      </c>
-      <c r="C169" s="4" t="s">
+      <c r="E173" s="2"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" s="5">
+        <v>1590000</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1970000</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1530000</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1380000</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B170" s="5" t="s">
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1960000</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" s="5">
+        <v>1345000</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1195000</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1195000</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1045000</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="5">
+        <v>990000</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" s="5">
-        <v>1960000</v>
-      </c>
-      <c r="C171" s="4" t="s">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B185" s="5">
+        <v>590000</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1630000</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1890000</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" s="5">
+        <v>2650000</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1300000</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1590000</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1060000</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1095000</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B193" s="5">
+        <v>895000</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B194" s="5">
+        <v>750000</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195" s="5">
+        <v>485000</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B196" s="5">
+        <v>595000</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B197" s="5">
+        <v>520000</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B172" s="5">
-        <v>1335000</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B173" s="5">
-        <v>1185000</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B175" s="5">
-        <v>1035000</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B178" s="5">
-        <v>590000</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B179" s="5">
-        <v>1630000</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B180" s="5">
-        <v>1890000</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B181" s="5">
-        <v>2650000</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B182" s="5">
-        <v>1300000</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B183" s="5">
-        <v>1590000</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B184" s="5">
-        <v>1060000</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B185" s="5">
-        <v>1095000</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B186" s="5">
-        <v>895000</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B187" s="5">
-        <v>750000</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B188" s="5">
-        <v>485000</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B189" s="5">
-        <v>595000</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B190" s="5">
-        <v>520000</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="G180:G181"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B11421-A35D-FF4F-9300-9986BFF6B638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA238E-EC5D-B440-930C-F790D4AC13E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="169">
   <si>
     <t>Apple iPhone 16 Plus 256GB (Teal) AR</t>
   </si>
@@ -488,6 +488,45 @@
   </si>
   <si>
     <t>السعر (price)</t>
+  </si>
+  <si>
+    <t>الماركه ( Brand )</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Blackview</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Infinix</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Realme</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Tecno</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>WiWU</t>
   </si>
 </sst>
 </file>
@@ -852,20 +891,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>154</v>
       </c>
@@ -873,2165 +912,2630 @@
         <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1365000</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>152</v>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1570750</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>525000</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
+      <c r="C4" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>525000</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>152</v>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>470000</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
+      <c r="C6" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>470000</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>152</v>
+      <c r="C7" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>470000</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>152</v>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>575000</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>152</v>
+      <c r="C9" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>575000</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>152</v>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1600000</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>152</v>
+      <c r="C11" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>1600000</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
+      <c r="C12" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>1065000</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>152</v>
+      <c r="C13" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>1065000</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>152</v>
+      <c r="C14" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>1210000</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>152</v>
+      <c r="C15" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>1365000</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>152</v>
+      <c r="C16" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>2300000</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>152</v>
+      <c r="C17" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>1615000</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>152</v>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>1615000</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>152</v>
+      <c r="C19" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>1615000</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>152</v>
+      <c r="C20" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>1980000</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>152</v>
+      <c r="C21" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>955000</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>152</v>
+      <c r="C22" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>1324500</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>152</v>
+      <c r="C23" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>768500</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>152</v>
+      <c r="C24" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>160000</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>152</v>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>160000</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>152</v>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>115000</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>152</v>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>115000</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>152</v>
+      <c r="C28" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>115000</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>152</v>
+      <c r="C29" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>430000</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>152</v>
+      <c r="C30" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>480000</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>152</v>
+      <c r="C31" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>480000</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>152</v>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>480000</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>152</v>
+      <c r="C33" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>1295000</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>152</v>
+      <c r="C34" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>1295000</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>152</v>
+      <c r="C35" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>795000</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>152</v>
+      <c r="C36" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>335000</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>152</v>
+      <c r="C37" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>115000</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>152</v>
+      <c r="C38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>260000</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>152</v>
+      <c r="C39" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>285000</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>152</v>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2">
         <v>130000</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>152</v>
+      <c r="C41" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>145000</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>152</v>
+      <c r="C42" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2">
         <v>145000</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>152</v>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>145000</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>152</v>
+      <c r="C44" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>180000</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>152</v>
+      <c r="C45" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>235000</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>152</v>
+      <c r="C46" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="2">
         <v>235000</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>152</v>
+      <c r="C47" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="2">
         <v>235000</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>152</v>
+      <c r="C48" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>285000</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>152</v>
+      <c r="C49" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="2">
         <v>350000</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>152</v>
+      <c r="C50" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>350000</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>152</v>
+      <c r="C51" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="2">
         <v>350000</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>152</v>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="2">
         <v>350000</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>152</v>
+      <c r="C53" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="2">
         <v>350000</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>152</v>
+      <c r="C54" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>325000</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>152</v>
+      <c r="C55" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>325000</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>152</v>
+      <c r="C56" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="2">
         <v>185000</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>152</v>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="2">
         <v>185000</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>152</v>
+      <c r="C58" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="2">
         <v>430000</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
+      <c r="C59" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="2">
         <v>640000</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>152</v>
+      <c r="C60" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="2">
         <v>640000</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>152</v>
+      <c r="C61" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="2">
         <v>1120000</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>152</v>
+      <c r="C62" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="2">
         <v>1475000</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>152</v>
+      <c r="C63" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="2">
         <v>270000</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>152</v>
+      <c r="C64" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="2">
         <v>270000</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>152</v>
+      <c r="C65" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="2">
         <v>190000</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>152</v>
+      <c r="C66" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="2">
         <v>310000</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>152</v>
+      <c r="C67" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="2">
         <v>290000</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>152</v>
+      <c r="C68" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="2">
         <v>160000</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>152</v>
+      <c r="C69" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="2">
         <v>685000</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>152</v>
+      <c r="C70" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="2">
         <v>945000</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>152</v>
+      <c r="C71" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="2">
         <v>380000</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>152</v>
+      <c r="C72" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="2">
         <v>420000</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>152</v>
+      <c r="C73" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="2">
         <v>420000</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>152</v>
+      <c r="C74" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2">
         <v>460000</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>152</v>
+      <c r="C75" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2">
         <v>460000</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>152</v>
+      <c r="C76" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="2">
         <v>460000</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>152</v>
+      <c r="C77" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="2">
         <v>375000</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>152</v>
+      <c r="C78" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="2">
         <v>375000</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>152</v>
+      <c r="C79" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="2">
         <v>600000</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>152</v>
+      <c r="C80" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="2">
         <v>170000</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>152</v>
+      <c r="C81" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="2">
         <v>235000</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>152</v>
+      <c r="C82" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="2">
         <v>235000</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>152</v>
+      <c r="C83" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B84" s="2">
         <v>205000</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>152</v>
+      <c r="C84" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B85" s="2">
         <v>120000</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>152</v>
+      <c r="C85" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="2">
         <v>120000</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>152</v>
+      <c r="C86" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="2">
         <v>105000</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>152</v>
+      <c r="C87" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B88" s="2">
         <v>225000</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>152</v>
+      <c r="C88" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B89" s="2">
         <v>225000</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>152</v>
+      <c r="C89" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B90" s="2">
         <v>360000</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>152</v>
+      <c r="C90" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="2">
         <v>360000</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>152</v>
+      <c r="C91" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="2">
         <v>365000</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>152</v>
+      <c r="C92" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="2">
         <v>425000</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>152</v>
+      <c r="C93" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B94" s="2">
         <v>300000</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>152</v>
+      <c r="C94" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B95" s="2">
         <v>500000</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>152</v>
+      <c r="C95" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B96" s="2">
         <v>245000</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>152</v>
+      <c r="C96" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B97" s="2">
         <v>230000</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>152</v>
+      <c r="C97" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="2">
         <v>230000</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>152</v>
+      <c r="C98" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B99" s="2">
         <v>230000</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>152</v>
+      <c r="C99" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B100" s="2">
         <v>320000</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>152</v>
+      <c r="C100" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B101" s="2">
         <v>230000</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>152</v>
+      <c r="C101" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B102" s="2">
         <v>230000</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>152</v>
+      <c r="C102" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B103" s="2">
         <v>130000</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>152</v>
+      <c r="C103" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B104" s="2">
         <v>160000</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>152</v>
+      <c r="C104" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B105" s="2">
         <v>160000</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>152</v>
+      <c r="C105" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B106" s="2">
         <v>160000</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>152</v>
+      <c r="C106" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B107" s="2">
         <v>340000</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>152</v>
+      <c r="C107" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="2">
         <v>340000</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>152</v>
+      <c r="C108" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="2">
         <v>340000</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>152</v>
+      <c r="C109" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="2">
         <v>535000</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>152</v>
+      <c r="C110" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B111" s="2">
         <v>535000</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>152</v>
+      <c r="C111" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B112" s="2">
         <v>490000</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>152</v>
+      <c r="C112" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B113" s="2">
         <v>490000</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>152</v>
+      <c r="C113" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B114" s="2">
         <v>490000</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>152</v>
+      <c r="C114" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="2">
         <v>490000</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>152</v>
+      <c r="C115" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B116" s="2">
         <v>1450000</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>152</v>
+      <c r="C116" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B117" s="2">
         <v>245000</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>152</v>
+      <c r="C117" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B118" s="2">
         <v>375000</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>152</v>
+      <c r="C118" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B119" s="2">
         <v>325000</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>152</v>
+      <c r="C119" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="2">
         <v>1875000</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>152</v>
+      <c r="C120" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B121" s="2">
         <v>2150000</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>152</v>
+      <c r="C121" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B122" s="2">
         <v>2150000</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>152</v>
+      <c r="C122" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="2">
         <v>1550000</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>152</v>
+      <c r="C123" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="2">
         <v>1300000</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>152</v>
+      <c r="C124" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B125" s="2">
         <v>1300000</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>152</v>
+      <c r="C125" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B126" s="2">
         <v>250000</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>152</v>
+      <c r="C126" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B127" s="2">
         <v>250000</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>152</v>
+      <c r="C127" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B128" s="2">
         <v>475000</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>152</v>
+      <c r="C128" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B129" s="2">
         <v>345000</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>152</v>
+      <c r="C129" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B130" s="2">
         <v>345000</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>152</v>
+      <c r="C130" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B131" s="2">
         <v>315000</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>152</v>
+      <c r="C131" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B132" s="2">
         <v>315000</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>152</v>
+      <c r="C132" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B133" s="2">
         <v>230000</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>152</v>
+      <c r="C133" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B134" s="2">
         <v>230000</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>152</v>
+      <c r="C134" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B135" s="2">
         <v>395000</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>152</v>
+      <c r="C135" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B136" s="2">
         <v>395000</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>152</v>
+      <c r="C136" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B137" s="2">
         <v>170000</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>152</v>
+      <c r="C137" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B138" s="2">
         <v>170000</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>152</v>
+      <c r="C138" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B139" s="2">
         <v>145000</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>152</v>
+      <c r="C139" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="2">
         <v>145000</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>152</v>
+      <c r="C140" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B141" s="2">
         <v>145000</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>152</v>
+      <c r="C141" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="2">
         <v>145000</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>152</v>
+      <c r="C142" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B143" s="2">
         <v>150000</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>152</v>
+      <c r="C143" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B144" s="2">
         <v>150000</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>152</v>
+      <c r="C144" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B145" s="2">
         <v>150000</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>152</v>
+      <c r="C145" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B146" s="2">
         <v>115000</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>152</v>
+      <c r="C146" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B147" s="2">
         <v>105000</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>152</v>
+      <c r="C147" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B148" s="2">
         <v>30000</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>152</v>
+      <c r="C148" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="2">
         <v>990000</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>152</v>
+      <c r="C149" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B150" s="2">
         <v>1400000</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>152</v>
+      <c r="C150" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B151" s="2">
         <v>515000</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>152</v>
+      <c r="C151" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B152" s="2">
         <v>515000</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>152</v>
+      <c r="C152" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B153" s="2">
         <v>465000</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>152</v>
+      <c r="C153" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B154" s="2">
         <v>465000</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>152</v>
+      <c r="C154" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B155" s="2">
         <v>670000</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>152</v>
+      <c r="C155" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D155" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>153</v>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8BD0B-19A8-9448-87C3-725AE5540F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DBCABB-64D3-A141-8FF5-1C5397A2EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="175">
   <si>
     <t>المتجر</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>HUAWEI</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه</t>
   </si>
   <si>
     <t>HONOR CHOICE Pencil</t>
@@ -952,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -989,12 +983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>2300000</v>
@@ -1002,19 +996,15 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>1990000</v>
@@ -1022,19 +1012,15 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>1630000</v>
@@ -1042,37 +1028,29 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1">
         <v>2125000</v>
@@ -1080,19 +1058,15 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1">
         <v>1700000</v>
@@ -1100,19 +1074,15 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>1550000</v>
@@ -1120,37 +1090,29 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>1345000</v>
@@ -1158,19 +1120,15 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>1195000</v>
@@ -1178,19 +1136,15 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>1195000</v>
@@ -1198,19 +1152,15 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>1045000</v>
@@ -1218,19 +1168,15 @@
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>885000</v>
@@ -1238,19 +1184,15 @@
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>1080000</v>
@@ -1258,19 +1200,15 @@
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <v>600000</v>
@@ -1278,19 +1216,15 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1">
         <v>2650000</v>
@@ -1298,37 +1232,29 @@
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1">
         <v>1535000</v>
@@ -1336,19 +1262,15 @@
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1">
         <v>1620000</v>
@@ -1356,19 +1278,15 @@
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1">
         <v>1180000</v>
@@ -1376,19 +1294,15 @@
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1">
         <v>1195000</v>
@@ -1396,19 +1310,15 @@
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1">
         <v>1050000</v>
@@ -1416,19 +1326,15 @@
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1">
         <v>710000</v>
@@ -1436,19 +1342,15 @@
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1">
         <v>850000</v>
@@ -1456,19 +1358,15 @@
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>500000</v>
@@ -1476,19 +1374,15 @@
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>435000</v>
@@ -1496,19 +1390,15 @@
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <v>495000</v>
@@ -1516,19 +1406,15 @@
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1">
         <v>405000</v>
@@ -1536,19 +1422,15 @@
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
         <v>595000</v>
@@ -1556,19 +1438,15 @@
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1">
         <v>2499000</v>
@@ -1576,19 +1454,15 @@
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1">
         <v>1479000</v>
@@ -1596,19 +1470,15 @@
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1">
         <v>1450000</v>
@@ -1616,19 +1486,15 @@
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1">
         <v>1300000</v>
@@ -1636,19 +1502,15 @@
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1">
         <v>1250000</v>
@@ -1656,19 +1518,15 @@
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1">
         <v>1150000</v>
@@ -1676,16 +1534,12 @@
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="1">
@@ -1694,16 +1548,12 @@
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="1">
@@ -1712,16 +1562,12 @@
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="1">
@@ -1730,16 +1576,12 @@
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1">
@@ -1748,16 +1590,12 @@
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1">
@@ -1766,16 +1604,12 @@
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="1">
@@ -1784,16 +1618,12 @@
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="1">
@@ -1802,16 +1632,12 @@
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="1">
@@ -1820,16 +1646,12 @@
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="1">
@@ -1838,16 +1660,12 @@
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="1">
@@ -1856,19 +1674,15 @@
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>1840000</v>
@@ -1876,19 +1690,15 @@
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1">
         <v>1640000</v>
@@ -1896,19 +1706,15 @@
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1">
         <v>1440000</v>
@@ -1916,37 +1722,29 @@
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1">
         <v>1520000</v>
@@ -1954,19 +1752,15 @@
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1">
         <v>1370000</v>
@@ -1974,19 +1768,15 @@
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1">
         <v>1550000</v>
@@ -1994,19 +1784,15 @@
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1">
         <v>1190000</v>
@@ -2014,19 +1800,15 @@
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1">
         <v>1390000</v>
@@ -2034,19 +1816,15 @@
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1">
         <v>1050000</v>
@@ -2054,19 +1832,15 @@
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1">
         <v>940000</v>
@@ -2074,19 +1848,15 @@
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1">
         <v>800000</v>
@@ -2094,19 +1864,15 @@
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1">
         <v>940000</v>
@@ -2114,19 +1880,15 @@
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1">
         <v>640000</v>
@@ -2134,19 +1896,15 @@
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1">
         <v>780000</v>
@@ -2154,19 +1912,15 @@
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1">
         <v>840000</v>
@@ -2174,19 +1928,15 @@
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1">
         <v>548000</v>
@@ -2194,19 +1944,15 @@
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1">
         <v>502000</v>
@@ -2214,19 +1960,15 @@
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1">
         <v>423000</v>
@@ -2234,19 +1976,15 @@
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65" s="4"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1">
         <v>387000</v>
@@ -2254,19 +1992,15 @@
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1">
         <v>349000</v>
@@ -2274,19 +2008,15 @@
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1">
         <v>295000</v>
@@ -2294,19 +2024,15 @@
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="1">
         <v>222000</v>
@@ -2314,19 +2040,15 @@
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="1">
         <v>183000</v>
@@ -2334,19 +2056,15 @@
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="1">
         <v>161000</v>
@@ -2354,19 +2072,15 @@
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1">
         <v>132000</v>
@@ -2374,19 +2088,15 @@
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" s="1">
         <v>115000</v>
@@ -2394,19 +2104,15 @@
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="4"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1">
         <v>98000</v>
@@ -2414,19 +2120,15 @@
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1">
         <v>400000</v>
@@ -2434,19 +2136,15 @@
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" s="1">
         <v>799000</v>
@@ -2454,19 +2152,15 @@
       <c r="D76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1">
         <v>398000</v>
@@ -2474,19 +2168,15 @@
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1">
         <v>335000</v>
@@ -2494,19 +2184,15 @@
       <c r="D78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1">
         <v>205000</v>
@@ -2514,19 +2200,15 @@
       <c r="D79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E79" s="4"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="1">
         <v>295000</v>
@@ -2534,19 +2216,15 @@
       <c r="D80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1">
         <v>210000</v>
@@ -2554,19 +2232,15 @@
       <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1">
         <v>182000</v>
@@ -2574,19 +2248,15 @@
       <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E82" s="4"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="1">
         <v>180000</v>
@@ -2594,19 +2264,15 @@
       <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" s="1">
         <v>114000</v>
@@ -2614,19 +2280,15 @@
       <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E84" s="4"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C85" s="1">
         <v>615000</v>
@@ -2634,16 +2296,12 @@
       <c r="D85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="1">
@@ -2652,19 +2310,15 @@
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="1">
         <v>1390000</v>
@@ -2672,19 +2326,15 @@
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" s="1">
         <v>980000</v>
@@ -2692,19 +2342,15 @@
       <c r="D88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="4"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="1">
         <v>745000</v>
@@ -2712,19 +2358,15 @@
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1">
         <v>501000</v>
@@ -2732,19 +2374,15 @@
       <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E90" s="4"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1">
         <v>418000</v>
@@ -2752,19 +2390,15 @@
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91" s="4"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1">
         <v>356000</v>
@@ -2772,19 +2406,15 @@
       <c r="D92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" s="1">
         <v>347000</v>
@@ -2792,19 +2422,15 @@
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E93" s="4"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C94" s="1">
         <v>287000</v>
@@ -2812,19 +2438,15 @@
       <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E94" s="4"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="1">
         <v>268000</v>
@@ -2832,19 +2454,15 @@
       <c r="D95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E95" s="4"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C96" s="1">
         <v>222000</v>
@@ -2852,19 +2470,15 @@
       <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E96" s="4"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C97" s="1">
         <v>164000</v>
@@ -2872,19 +2486,15 @@
       <c r="D97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="4"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C98" s="1">
         <v>148000</v>
@@ -2892,19 +2502,15 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E98" s="4"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C99" s="1">
         <v>103000</v>
@@ -2912,19 +2518,15 @@
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="4"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" s="1">
         <v>88000</v>
@@ -2932,19 +2534,15 @@
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="4"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C101" s="1">
         <v>927000</v>
@@ -2952,19 +2550,15 @@
       <c r="D101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E101" s="4"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C102" s="1">
         <v>687000</v>
@@ -2972,19 +2566,15 @@
       <c r="D102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1">
         <v>545000</v>
@@ -2992,19 +2582,15 @@
       <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104" s="1">
         <v>485000</v>
@@ -3012,19 +2598,15 @@
       <c r="D104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E104" s="4"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C105" s="1">
         <v>459000</v>
@@ -3032,19 +2614,15 @@
       <c r="D105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="4"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C106" s="1">
         <v>415000</v>
@@ -3052,19 +2630,15 @@
       <c r="D106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E106" s="4"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C107" s="1">
         <v>360000</v>
@@ -3072,19 +2646,15 @@
       <c r="D107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E107" s="4"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C108" s="1">
         <v>304000</v>
@@ -3092,19 +2662,15 @@
       <c r="D108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E108" s="4"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C109" s="1">
         <v>276000</v>
@@ -3112,19 +2678,15 @@
       <c r="D109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E109" s="4"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" s="1">
         <v>148000</v>
@@ -3132,19 +2694,15 @@
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E110" s="4"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C111" s="1">
         <v>105000</v>
@@ -3152,19 +2710,15 @@
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E111" s="4"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C112" s="1">
         <v>664000</v>
@@ -3172,19 +2726,15 @@
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="4"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="1">
         <v>507000</v>
@@ -3192,19 +2742,15 @@
       <c r="D113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E113" s="4"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" s="1">
         <v>461000</v>
@@ -3212,19 +2758,15 @@
       <c r="D114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="4"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C115" s="1">
         <v>710000</v>
@@ -3232,19 +2774,15 @@
       <c r="D115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="4"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" s="1">
         <v>321000</v>
@@ -3252,19 +2790,15 @@
       <c r="D116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E116" s="4"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C117" s="1">
         <v>265000</v>
@@ -3272,19 +2806,15 @@
       <c r="D117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E117" s="4"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C118" s="1">
         <v>252000</v>
@@ -3292,19 +2822,15 @@
       <c r="D118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E118" s="4"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C119" s="1">
         <v>229000</v>
@@ -3312,19 +2838,15 @@
       <c r="D119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E119" s="4"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C120" s="1">
         <v>192000</v>
@@ -3332,19 +2854,15 @@
       <c r="D120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E120" s="4"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C121" s="1">
         <v>314000</v>
@@ -3352,19 +2870,15 @@
       <c r="D121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E121" s="4"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" s="1">
         <v>1495000</v>
@@ -3372,19 +2886,15 @@
       <c r="D122" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E122" s="4"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="1">
         <v>1183000</v>
@@ -3392,19 +2902,15 @@
       <c r="D123" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E123" s="4"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C124" s="1">
         <v>652000</v>
@@ -3412,19 +2918,15 @@
       <c r="D124" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E124" s="4"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C125" s="1">
         <v>435000</v>
@@ -3432,19 +2934,15 @@
       <c r="D125" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="4"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C126" s="1">
         <v>283000</v>
@@ -3452,19 +2950,15 @@
       <c r="D126" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E126" s="4"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C127" s="1">
         <v>193000</v>
@@ -3472,16 +2966,12 @@
       <c r="D127" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="5" t="s">
+      <c r="E127" s="4"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C128" s="1">
         <v>268000</v>
@@ -3489,16 +2979,12 @@
       <c r="D128" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E128" s="4"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C129" s="1">
         <v>170000</v>
@@ -3506,16 +2992,12 @@
       <c r="D129" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E129" s="4"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C130" s="1">
         <v>237000</v>
@@ -3523,16 +3005,12 @@
       <c r="D130" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E130" s="4"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C131" s="1">
         <v>268000</v>
@@ -3540,16 +3018,12 @@
       <c r="D131" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E131" s="4"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C132" s="1">
         <v>810000</v>
@@ -3557,16 +3031,12 @@
       <c r="D132" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E132" s="4"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C133" s="1">
         <v>590000</v>
@@ -3574,16 +3044,12 @@
       <c r="D133" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E133" s="4"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C134" s="1">
         <v>590000</v>
@@ -3591,16 +3057,12 @@
       <c r="D134" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E134" s="4"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C135" s="1">
         <v>810000</v>
@@ -3608,16 +3070,12 @@
       <c r="D135" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E135" s="4"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C136" s="1">
         <v>745000</v>
@@ -3625,16 +3083,12 @@
       <c r="D136" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E136" s="4"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="1">
@@ -3643,16 +3097,12 @@
       <c r="D137" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E137" s="4"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="1">
@@ -3661,16 +3111,12 @@
       <c r="D138" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E138" s="4"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="1">
@@ -3679,16 +3125,12 @@
       <c r="D139" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E139" s="4"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="1">
@@ -3697,16 +3139,12 @@
       <c r="D140" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E140" s="4"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="1">
@@ -3715,16 +3153,12 @@
       <c r="D141" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E141" s="4"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="1">
@@ -3733,16 +3167,12 @@
       <c r="D142" t="s">
         <v>13</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E142" s="4"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="1">
@@ -3751,16 +3181,12 @@
       <c r="D143" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E143" s="4"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="1">
@@ -3769,16 +3195,12 @@
       <c r="D144" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E144" s="4"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="1">
@@ -3787,16 +3209,12 @@
       <c r="D145" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E145" s="4"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="1">
@@ -3805,19 +3223,15 @@
       <c r="D146" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E146" s="4"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C147" s="1">
         <v>470000</v>
@@ -3825,19 +3239,15 @@
       <c r="D147" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E147" s="4"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C148" s="1">
         <v>345000</v>
@@ -3845,19 +3255,15 @@
       <c r="D148" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E148" s="4"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C149" s="1">
         <v>315000</v>
@@ -3865,19 +3271,15 @@
       <c r="D149" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E149" s="4"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C150" s="1">
         <v>255000</v>
@@ -3885,19 +3287,15 @@
       <c r="D150" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E150" s="4"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C151" s="1">
         <v>399000</v>
@@ -3905,19 +3303,15 @@
       <c r="D151" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E151" s="4"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C152" s="1">
         <v>155000</v>
@@ -3925,19 +3319,15 @@
       <c r="D152" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E152" s="4"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C153" s="1">
         <v>145000</v>
@@ -3945,19 +3335,15 @@
       <c r="D153" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E153" s="4"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C154" s="1">
         <v>146000</v>
@@ -3965,19 +3351,15 @@
       <c r="D154" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E154" s="4"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C155" s="1">
         <v>189000</v>
@@ -3985,19 +3367,15 @@
       <c r="D155" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E155" s="4"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C156" s="1">
         <v>107000</v>
@@ -4005,19 +3383,15 @@
       <c r="D156" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E156" s="4"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C157" s="1">
         <v>95000</v>
@@ -4025,19 +3399,15 @@
       <c r="D157" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E157" s="4"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C158" s="1">
         <v>98000</v>
@@ -4045,19 +3415,15 @@
       <c r="D158" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E158" s="4"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C159" s="1">
         <v>115000</v>
@@ -4065,19 +3431,15 @@
       <c r="D159" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E159" s="4"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C160" s="1">
         <v>215000</v>
@@ -4085,19 +3447,15 @@
       <c r="D160" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E160" s="4"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C161" s="1">
         <v>136000</v>
@@ -4105,19 +3463,15 @@
       <c r="D161" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E161" s="4"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C162" s="1">
         <v>380000</v>
@@ -4125,19 +3479,15 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E162" s="4"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C163" s="1">
         <v>450000</v>
@@ -4145,19 +3495,15 @@
       <c r="D163" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E163" s="4"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C164" s="1">
         <v>310000</v>
@@ -4165,19 +3511,15 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E164" s="4"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C165" s="1">
         <v>293000</v>
@@ -4185,19 +3527,15 @@
       <c r="D165" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E165" s="4"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C166" s="1">
         <v>253000</v>
@@ -4205,19 +3543,15 @@
       <c r="D166" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E166" s="4"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C167" s="1">
         <v>200000</v>
@@ -4225,19 +3559,15 @@
       <c r="D167" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E167" s="4"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C168" s="1">
         <v>145000</v>
@@ -4245,19 +3575,15 @@
       <c r="D168" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E168" s="4"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C169" s="1">
         <v>138000</v>
@@ -4265,19 +3591,15 @@
       <c r="D169" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E169" s="4"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C170" s="1">
         <v>158000</v>
@@ -4285,19 +3607,15 @@
       <c r="D170" t="s">
         <v>7</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E170" s="4"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C171" s="1">
         <v>143000</v>
@@ -4305,19 +3623,15 @@
       <c r="D171" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E171" s="4"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C172" s="1">
         <v>102000</v>
@@ -4325,19 +3639,15 @@
       <c r="D172" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E172" s="4"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C173" s="1">
         <v>89000</v>
@@ -4345,19 +3655,15 @@
       <c r="D173" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E173" s="4"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C174" s="1">
         <v>127000</v>
@@ -4365,19 +3671,15 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E174" s="4"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C175" s="1">
         <v>465000</v>
@@ -4385,12 +3687,8 @@
       <c r="D175" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
